--- a/tables/Table_S1_simulated_read_genomes.xlsx
+++ b/tables/Table_S1_simulated_read_genomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Polypolish_paper/GitHub_repo/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C5B3EF-45C8-A64E-8BEC-C1AD22229FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DF568B-959F-494F-8F96-85199A5816B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="1240" windowWidth="27240" windowHeight="16440" xr2:uid="{2E509679-2DC4-244E-BBA5-E1F5FFB12ED3}"/>
   </bookViews>
@@ -63,24 +63,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="301">
   <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>genome_name</t>
-  </si>
-  <si>
-    <t>chromosome_accession</t>
-  </si>
-  <si>
-    <t>chromosome_size</t>
-  </si>
-  <si>
-    <t>repeat_size</t>
-  </si>
-  <si>
-    <t>unicycler_contigs</t>
-  </si>
-  <si>
     <t>Acinetobacter pittii</t>
   </si>
   <si>
@@ -964,13 +946,31 @@
   </si>
   <si>
     <t>NC_003143.1</t>
+  </si>
+  <si>
+    <t>Chromosome accession</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Genome name</t>
+  </si>
+  <si>
+    <t>Chromosome size</t>
+  </si>
+  <si>
+    <t>Repeat size</t>
+  </si>
+  <si>
+    <t>Unicycler contigs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -985,12 +985,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1366,33 +1360,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>1042519</v>
@@ -1406,13 +1400,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D3">
         <v>1860725</v>
@@ -1426,13 +1420,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>1830138</v>
@@ -1446,13 +1440,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D5">
         <v>816394</v>
@@ -1466,13 +1460,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D6">
         <v>4641652</v>
@@ -1486,13 +1480,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>1667867</v>
@@ -1506,13 +1500,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>1551335</v>
@@ -1526,13 +1520,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>1230230</v>
@@ -1546,13 +1540,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D10">
         <v>4411532</v>
@@ -1566,13 +1560,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D11">
         <v>1111523</v>
@@ -1586,13 +1580,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>4215606</v>
@@ -1606,13 +1600,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>910724</v>
@@ -1626,13 +1620,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>1641481</v>
@@ -1646,13 +1640,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D15">
         <v>6264404</v>
@@ -1666,13 +1660,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>640681</v>
@@ -1686,13 +1680,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D17">
         <v>2365589</v>
@@ -1706,13 +1700,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D18">
         <v>3268203</v>
@@ -1726,13 +1720,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D19">
         <v>5498578</v>
@@ -1746,13 +1740,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>4016947</v>
@@ -1766,13 +1760,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D21">
         <v>1852433</v>
@@ -1786,13 +1780,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>4086189</v>
@@ -1806,13 +1800,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D23">
         <v>2154946</v>
@@ -1826,13 +1820,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <v>3570858</v>
@@ -1846,13 +1840,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D25">
         <v>3814128</v>
@@ -1866,13 +1860,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D26">
         <v>3397754</v>
@@ -1886,13 +1880,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D27">
         <v>2153922</v>
@@ -1906,13 +1900,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D28">
         <v>6181873</v>
@@ -1926,13 +1920,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C29" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D29">
         <v>2843201</v>
@@ -1946,13 +1940,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>1995488</v>
@@ -1966,13 +1960,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <v>3940880</v>
@@ -1986,13 +1980,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D32">
         <v>3654135</v>
@@ -2006,13 +2000,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D33">
         <v>2038615</v>
@@ -2026,13 +2020,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D34">
         <v>4653728</v>
@@ -2046,13 +2040,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D35">
         <v>4857450</v>
@@ -2066,13 +2060,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D36">
         <v>2944528</v>
@@ -2086,13 +2080,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <v>3309401</v>
@@ -2106,13 +2100,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D38">
         <v>2174500</v>
@@ -2126,13 +2120,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D39">
         <v>8667507</v>
@@ -2146,13 +2140,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C40" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D40">
         <v>5076188</v>
@@ -2166,13 +2160,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>5227293</v>
@@ -2186,13 +2180,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C42" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D42">
         <v>2593857</v>
@@ -2206,13 +2200,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B43" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D43">
         <v>2160267</v>
@@ -2226,13 +2220,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>2256640</v>
@@ -2246,13 +2240,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C45" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D45">
         <v>4607202</v>
@@ -2266,13 +2260,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D46">
         <v>4969811</v>
@@ -2286,13 +2280,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C47" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D47">
         <v>2032925</v>
@@ -2306,13 +2300,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D48">
         <v>2499279</v>
@@ -2326,13 +2320,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D49">
         <v>9105828</v>
@@ -2346,13 +2340,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D50">
         <v>3308273</v>
@@ -2366,13 +2360,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D51">
         <v>6397126</v>
@@ -2386,13 +2380,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D52">
         <v>6260361</v>
@@ -2406,13 +2400,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D53">
         <v>3218031</v>
@@ -2426,13 +2420,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>5411809</v>
@@ -2446,13 +2440,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D55">
         <v>7145576</v>
@@ -2466,13 +2460,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D56">
         <v>1751080</v>
@@ -2486,13 +2480,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D57">
         <v>4659019</v>
@@ -2506,13 +2500,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>5228663</v>
@@ -2526,13 +2520,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D59">
         <v>793224</v>
@@ -2546,13 +2540,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D60">
         <v>5277274</v>
@@ -2566,13 +2560,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D61">
         <v>1849742</v>
@@ -2586,13 +2580,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D62">
         <v>1892775</v>
@@ -2606,13 +2600,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D63">
         <v>1993560</v>
@@ -2626,13 +2620,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D64">
         <v>6093698</v>
@@ -2646,13 +2640,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D65">
         <v>4369232</v>
@@ -2666,13 +2660,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D66">
         <v>4352825</v>
@@ -2686,13 +2680,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D67">
         <v>2628784</v>
@@ -2706,13 +2700,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B68" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D68">
         <v>3551823</v>
@@ -2726,13 +2720,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D69">
         <v>2821361</v>
@@ -2746,13 +2740,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D70">
         <v>1827111</v>
@@ -2766,13 +2760,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D71">
         <v>2895264</v>
@@ -2786,13 +2780,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D72">
         <v>4744448</v>
@@ -2806,13 +2800,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D73">
         <v>6988209</v>
@@ -2826,13 +2820,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C74" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D74">
         <v>4615899</v>
@@ -2846,13 +2840,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C75" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D75">
         <v>2388435</v>
@@ -2866,13 +2860,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D76">
         <v>4290252</v>
@@ -2886,13 +2880,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D77">
         <v>3886916</v>
@@ -2906,13 +2900,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D78">
         <v>2860382</v>
@@ -2926,13 +2920,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D79">
         <v>3781904</v>
@@ -2946,13 +2940,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D80">
         <v>5258541</v>
@@ -2966,13 +2960,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D81">
         <v>5067172</v>
@@ -2986,13 +2980,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D82">
         <v>1855560</v>
@@ -3006,13 +3000,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D83">
         <v>5132068</v>
@@ -3026,13 +3020,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D84">
         <v>5202090</v>
@@ -3046,13 +3040,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D85">
         <v>3925702</v>
@@ -3066,13 +3060,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B86" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D86">
         <v>2146229</v>
@@ -3086,13 +3080,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D87">
         <v>3614992</v>
@@ -3106,13 +3100,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B88" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C88" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D88">
         <v>1848474</v>
@@ -3126,13 +3120,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B89" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C89" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D89">
         <v>2146611</v>
@@ -3146,13 +3140,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D90">
         <v>5314581</v>
@@ -3166,13 +3160,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D91">
         <v>10236715</v>
@@ -3186,13 +3180,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D92">
         <v>2214656</v>
@@ -3206,13 +3200,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D93">
         <v>1667350</v>
@@ -3226,13 +3220,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D94">
         <v>6264489</v>
@@ -3246,13 +3240,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D95">
         <v>5280350</v>
@@ -3266,13 +3260,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>3862530</v>
@@ -3286,13 +3280,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D97">
         <v>5333942</v>
@@ -3306,13 +3300,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D98">
         <v>2766400</v>
@@ -3326,13 +3320,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D99">
         <v>4747819</v>
@@ -3346,13 +3340,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D100">
         <v>2698137</v>
@@ -3366,13 +3360,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D101">
         <v>4887379</v>
